--- a/Finflux Automation Excels/Client/5035-DISBURSELOANon01Jan2015-uncheckAccountMovesOutOfNPA-VIEWJOURNALENTRIES-NPA-EarlyMakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/5035-DISBURSELOANon01Jan2015-uncheckAccountMovesOutOfNPA-VIEWJOURNALENTRIES-NPA-EarlyMakeRepayment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -1134,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,25 +1181,25 @@
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="7">
-        <v>42095</v>
+        <v>42086</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="6">
-        <v>7.51</v>
+        <v>11.68</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
       </c>
       <c r="G2" s="6">
-        <v>7.51</v>
+        <v>11.68</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1215,13 +1215,13 @@
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="7">
-        <v>42086</v>
+        <v>42072</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>35</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="7">
-        <v>42072</v>
+        <v>42058</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>35</v>
@@ -1283,25 +1283,25 @@
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="7">
-        <v>42058</v>
+        <v>42044</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="6">
-        <v>11.68</v>
+        <v>1.67</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>11.68</v>
+        <v>1.67</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -1317,25 +1317,25 @@
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="7">
-        <v>42044</v>
+        <v>42042</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="6">
-        <v>1.67</v>
+        <v>7.97</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>1.67</v>
+        <v>7.97</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>32</v>
@@ -1360,13 +1360,13 @@
         <v>42042</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="6">
-        <v>7.97</v>
+        <v>500</v>
       </c>
       <c r="F7" s="6">
-        <v>0</v>
+        <v>492.03</v>
       </c>
       <c r="G7" s="6">
         <v>7.97</v>
@@ -1377,33 +1377,33 @@
       <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="6">
-        <v>0</v>
+      <c r="J7" s="5">
+        <v>2537.56</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>42042</v>
+        <v>42095</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" s="6">
-        <v>500</v>
+        <v>51.78</v>
       </c>
       <c r="F8" s="6">
-        <v>492.03</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>7.97</v>
+        <v>51.78</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -1411,33 +1411,33 @@
       <c r="I8" s="6">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <v>2537.56</v>
+      <c r="J8" s="6">
+        <v>0</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="7">
-        <v>42095</v>
+        <v>42086</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="6">
-        <v>51.78</v>
+        <v>13.94</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <v>51.78</v>
+        <v>13.94</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
@@ -1453,13 +1453,13 @@
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="7">
-        <v>42086</v>
+        <v>42072</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>
@@ -1487,13 +1487,13 @@
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="7">
-        <v>42072</v>
+        <v>42058</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>37</v>
@@ -1521,25 +1521,25 @@
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="7">
-        <v>42058</v>
+        <v>42044</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="6">
-        <v>13.94</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
       <c r="G12" s="6">
-        <v>13.94</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1553,27 +1553,27 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>42044</v>
+        <v>42034</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="6">
-        <v>9.9600000000000009</v>
+        <v>6.58</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
       <c r="G13" s="6">
-        <v>9.9600000000000009</v>
+        <v>6.58</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1587,9 +1587,9 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>32</v>
@@ -1598,16 +1598,16 @@
         <v>42034</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6">
-        <v>6.58</v>
+        <v>23.01</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <v>6.58</v>
+        <v>23.01</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="7">
-        <v>42034</v>
+        <v>42086</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>36</v>
@@ -1657,13 +1657,13 @@
     </row>
     <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="7">
-        <v>42086</v>
+        <v>42072</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>36</v>
@@ -1691,13 +1691,13 @@
     </row>
     <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="7">
-        <v>42072</v>
+        <v>42058</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>36</v>
@@ -1725,13 +1725,13 @@
     </row>
     <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="7">
-        <v>42058</v>
+        <v>42044</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>36</v>
@@ -1757,27 +1757,27 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="7">
-        <v>42044</v>
+        <v>42034</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="6">
-        <v>23.01</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1970.41</v>
       </c>
       <c r="G19" s="6">
-        <v>23.01</v>
+        <v>29.59</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
@@ -1785,33 +1785,33 @@
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="J19" s="6">
-        <v>0</v>
+      <c r="J19" s="5">
+        <v>3029.59</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>42034</v>
+        <v>42086</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1970.41</v>
+        <v>37</v>
+      </c>
+      <c r="E20" s="6">
+        <v>23.01</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
       </c>
       <c r="G20" s="6">
-        <v>29.59</v>
+        <v>23.01</v>
       </c>
       <c r="H20" s="6">
         <v>0</v>
@@ -1819,21 +1819,21 @@
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="J20" s="5">
-        <v>3029.59</v>
+      <c r="J20" s="6">
+        <v>0</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="7">
-        <v>42086</v>
+        <v>42072</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>37</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="7">
-        <v>42072</v>
+        <v>42058</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>37</v>
@@ -1895,13 +1895,13 @@
     </row>
     <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="7">
-        <v>42058</v>
+        <v>42044</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>37</v>
@@ -1929,13 +1929,13 @@
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="7">
-        <v>42044</v>
+        <v>42030</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>37</v>
@@ -1961,9 +1961,9 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>32</v>
@@ -1972,7 +1972,7 @@
         <v>42030</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E25" s="6">
         <v>23.01</v>
@@ -1997,25 +1997,25 @@
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>42030</v>
+        <v>42005</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="6">
-        <v>23.01</v>
+        <v>34</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5000</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
       </c>
       <c r="G26" s="6">
-        <v>23.01</v>
+        <v>0</v>
       </c>
       <c r="H26" s="6">
         <v>0</v>
@@ -2023,45 +2023,11 @@
       <c r="I26" s="6">
         <v>0</v>
       </c>
-      <c r="J26" s="6">
-        <v>0</v>
+      <c r="J26" s="4">
+        <v>5000</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="7">
-        <v>42005</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5000</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>5000</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
